--- a/Data/Transitions/19571963Translation.xlsx
+++ b/Data/Transitions/19571963Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="617">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1733,9 +1733,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3878,7 +3875,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>573</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3889,7 +3886,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4098,7 +4095,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4208,7 +4205,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4428,7 +4425,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4472,7 +4469,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4615,7 +4612,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>573</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4659,7 +4656,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4989,7 +4986,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5099,7 +5096,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5143,7 +5140,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5154,7 +5151,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5352,7 +5349,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5462,7 +5459,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5627,7 +5624,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5660,7 +5657,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5682,7 +5679,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5693,7 +5690,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5737,7 +5734,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5858,7 +5855,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5891,7 +5888,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6067,7 +6064,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6089,7 +6086,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6100,7 +6097,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6199,7 +6196,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6419,7 +6416,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6430,7 +6427,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6826,7 +6823,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7134,7 +7131,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7189,7 +7186,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7211,7 +7208,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7222,7 +7219,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7266,7 +7263,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7343,7 +7340,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7530,7 +7527,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7563,7 +7560,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7607,7 +7604,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7750,7 +7747,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7805,7 +7802,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7816,7 +7813,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7926,7 +7923,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8047,7 +8044,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8069,7 +8066,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8091,7 +8088,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8102,7 +8099,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8146,7 +8143,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="539" spans="1:3">
